--- a/Output/Table 2 - SES Korsoer.xlsx
+++ b/Output/Table 2 - SES Korsoer.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>CFR</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Number of deaths</t>
   </si>
   <si>
-    <t>Attack rate (%)</t>
-  </si>
-  <si>
-    <t>Mortality rate (%)</t>
-  </si>
-  <si>
     <t>Totals</t>
   </si>
   <si>
@@ -55,6 +49,55 @@
   </si>
   <si>
     <t>Middle-low</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Mortality ratio (95% CI)</t>
+  </si>
+  <si>
+    <t>0.14
+(0.11 - 0.17)</t>
+  </si>
+  <si>
+    <t>0.08
+(0.06 - 0.10)</t>
+  </si>
+  <si>
+    <t>0.17
+(0.13 - 0.21)</t>
+  </si>
+  <si>
+    <t>0.21
+(0.16 - 0.25)</t>
+  </si>
+  <si>
+    <t>0.13
+(0.12 - 0.15)</t>
+  </si>
+  <si>
+    <t>0.05
+(0.03 - 0.06)</t>
+  </si>
+  <si>
+    <t>0.10
+(0.07 - 0.12)</t>
+  </si>
+  <si>
+    <t>0.12
+(0.08 - 0.16)</t>
+  </si>
+  <si>
+    <t>0.14
+(0.10 - 0.18)</t>
+  </si>
+  <si>
+    <t>0.09
+(0.08 - 0.10)</t>
+  </si>
+  <si>
+    <t>Attack ratio (95% CI)</t>
   </si>
 </sst>
 </file>
@@ -64,7 +107,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,9 +126,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,32 +144,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -138,9 +166,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -152,17 +178,22 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma 2" xfId="2"/>
@@ -469,7 +500,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,61 +508,63 @@
     <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>0</v>
+      <c r="B2" s="3">
+        <v>717</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8647</v>
+      </c>
+      <c r="D2" s="3">
+        <v>58</v>
+      </c>
+      <c r="E2" s="3">
+        <v>35</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.60344827586206895</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1">
-        <v>717</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8647</v>
-      </c>
-      <c r="D2" s="1">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1">
-        <v>35</v>
-      </c>
-      <c r="F2" s="2">
-        <v>8.0892608089260812E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>4.8814504881450491E-2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0.60344827586206895</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -547,19 +580,19 @@
       <c r="E3" s="3">
         <v>56</v>
       </c>
-      <c r="F3" s="4">
-        <v>0.13582342954159593</v>
-      </c>
-      <c r="G3" s="4">
-        <v>9.5076400679117143E-2</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <v>348</v>
@@ -573,19 +606,19 @@
       <c r="E4" s="3">
         <v>42</v>
       </c>
-      <c r="F4" s="4">
-        <v>0.16954022988505746</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.1206896551724138</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5">
         <v>0.71186440677966101</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6">
         <v>359</v>
@@ -599,37 +632,39 @@
       <c r="E5" s="6">
         <v>51</v>
       </c>
-      <c r="F5" s="7">
-        <v>0.20612813370473537</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0.14206128133704735</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="8">
         <v>0.68918918918918914</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
         <v>2013</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
         <v>271</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="3">
         <v>184</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.13462493790362642</v>
-      </c>
-      <c r="G6" s="2">
-        <v>9.1405861897665183E-2</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="5">
         <v>0.6789667896678967</v>
       </c>
     </row>
